--- a/src/Skull-projections/Original Datasets/41 supraorb.xlsx
+++ b/src/Skull-projections/Original Datasets/41 supraorb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firas\OneDrive\Bureau\HP\Final - Datasets + Code\Original Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286579C-FD37-414B-98B3-E991AC7A80CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0286579C-FD37-414B-98B3-E991AC7A80CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7E8559-FEF7-534A-9103-54A9C4228CDF}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="720" windowWidth="14688" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="760" windowWidth="23840" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>label_l</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>LATERAAL mid splitsing - mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -633,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -708,7 +711,7 @@
         <v>268.39589999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
@@ -740,7 +743,7 @@
         <v>254.15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -772,7 +775,7 @@
         <v>290.02609999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="J5">
         <v>284.99380000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -836,7 +842,7 @@
         <v>282.40199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
@@ -868,7 +874,7 @@
         <v>292.18920000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -900,7 +906,7 @@
         <v>295.18380000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -932,7 +938,7 @@
         <v>296.99450000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -964,7 +970,7 @@
         <v>298.31729999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>282.40199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>290.19990000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>292.48169999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>291.96379999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>282.80360000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>282.40199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>282.4418</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>276.33949999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>266.39769999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>248.0634</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>260.60910000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>283.77289999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>290.2038</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>297.84289999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>287.14580000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>259.27249999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>293.48180000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>295.45949999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>300.8605</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>298.84289999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>290.96960000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>279.94659999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>271.7244</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>269.95159999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>267.80709999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
